--- a/Day1/Normalization.xlsx
+++ b/Day1/Normalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\d drive\Corp\Kanini\Feb2022\Participants\Day1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F676F0-2A91-4E17-86AB-F30CB7ED2EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DB216C-6076-429C-9091-DFD7B944ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DF9485E4-D285-4A0C-9B41-56402981E717}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DF9485E4-D285-4A0C-9B41-56402981E717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>Employee</t>
   </si>
@@ -266,6 +266,21 @@
   </si>
   <si>
     <t>SoldPrice</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>char(4)</t>
+  </si>
+  <si>
+    <t>dbShop</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A7ACCD-EC95-4D01-8D74-123A095D6697}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1700,8 +1715,14 @@
       <c r="C17" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +1733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -1734,12 +1755,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -1747,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1755,7 +1776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1771,12 +1792,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1790,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB7E27-78D4-417F-8525-7F103FD5FAEA}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1911,6 +1940,9 @@
       <c r="A10" t="s">
         <v>52</v>
       </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
